--- a/biology/Médecine/Khalid_Aït_Taleb/Khalid_Aït_Taleb.xlsx
+++ b/biology/Médecine/Khalid_Aït_Taleb/Khalid_Aït_Taleb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Khalid_A%C3%AFt_Taleb</t>
+          <t>Khalid_Aït_Taleb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Khalid Aït Taleb (né le 8 juillet 1966 à Rabat[1]), est un professeur de médecine et homme politique marocain. Il est le ministre de la Santé et de la Protection sociale du Maroc[2].
+Khalid Aït Taleb (né le 8 juillet 1966 à Rabat), est un professeur de médecine et homme politique marocain. Il est le ministre de la Santé et de la Protection sociale du Maroc.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Khalid_A%C3%AFt_Taleb</t>
+          <t>Khalid_Aït_Taleb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière professionnelle
-Il a été notamment chef de service de chirurgie viscérale au CHU de Fès[3].
-En 2016, il est élu à la présidence de l’Alliance des CHU du Maroc[4].
-Carrière politique
-Avant sa nomination au poste de ministre, il occupe, par intérim, le poste de secrétaire général du ministère de la Santé, à la place de Hicham Nejmi.
-Le 9 octobre 2019, dans le cadre d'un remaniement ministériel, Khalid Ait Taleb est nommé ministre de la Santé[5].
-Il doit, lors de son mandat, gérer la crise liée à la pandémie due au virus de la Covid 19. Sa gestion de la campagne vaccinale (notamment au sujet de la livraison des vaccins) lui vaut des critiques dans les médias et dans l'opposition[6],[7]. Lors de cette campagne, il doit aussi faire face à une polémique provoquée par une page  Facebook au nom du ministre Khalid Ait Taleb. Le ministère de la Santé dément alors tout lien avec cette page[8].
-Vie privée
-Khalid Aït Taleb est marié et père de trois enfants, deux garçons et une fille [9].
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été notamment chef de service de chirurgie viscérale au CHU de Fès.
+En 2016, il est élu à la présidence de l’Alliance des CHU du Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Khalid_Aït_Taleb</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Khalid_A%C3%AFt_Taleb</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant sa nomination au poste de ministre, il occupe, par intérim, le poste de secrétaire général du ministère de la Santé, à la place de Hicham Nejmi.
+Le 9 octobre 2019, dans le cadre d'un remaniement ministériel, Khalid Ait Taleb est nommé ministre de la Santé.
+Il doit, lors de son mandat, gérer la crise liée à la pandémie due au virus de la Covid 19. Sa gestion de la campagne vaccinale (notamment au sujet de la livraison des vaccins) lui vaut des critiques dans les médias et dans l'opposition,. Lors de cette campagne, il doit aussi faire face à une polémique provoquée par une page  Facebook au nom du ministre Khalid Ait Taleb. Le ministère de la Santé dément alors tout lien avec cette page.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Khalid_Aït_Taleb</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Khalid_A%C3%AFt_Taleb</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Khalid Aït Taleb est marié et père de trois enfants, deux garçons et une fille .
 </t>
         </is>
       </c>
